--- a/public/reports/production_report_g.xlsx
+++ b/public/reports/production_report_g.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
   <si>
     <t>PRODUCTION REPORT</t>
   </si>
@@ -137,6 +137,69 @@
   </si>
   <si>
     <t xml:space="preserve"> packing on </t>
+  </si>
+  <si>
+    <t>lpo/Dream uniforms/DU/PO/001Test</t>
+  </si>
+  <si>
+    <t>4657-4756</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>abcd cut on 10/1/2019--19:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stitched on </t>
+  </si>
+  <si>
+    <t>Affan uniforms co.</t>
+  </si>
+  <si>
+    <t>lpo/Affan uniforms co./500</t>
+  </si>
+  <si>
+    <t>4757-4806</t>
+  </si>
+  <si>
+    <t>Geo Anchor</t>
+  </si>
+  <si>
+    <t>ali packing on 14/1/2019--14:45</t>
+  </si>
+  <si>
+    <t>4807-4856</t>
+  </si>
+  <si>
+    <t>Geo tv anchor female</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>ahmed packing on 14/1/2019--14:46</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Total Cut</t>
+  </si>
+  <si>
+    <t>Total Stitched</t>
+  </si>
+  <si>
+    <t>Total Finished</t>
+  </si>
+  <si>
+    <t>Total Packed</t>
+  </si>
+  <si>
+    <t>Total Delivered</t>
   </si>
 </sst>
 </file>
@@ -481,7 +544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="H11" sqref="H11"/>
@@ -689,6 +752,188 @@
         <v>25</v>
       </c>
     </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12">
+        <v>60</v>
+      </c>
+      <c r="I12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12">
+        <v>22</v>
+      </c>
+      <c r="K12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12">
+        <v>14</v>
+      </c>
+      <c r="M12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12">
+        <v>81</v>
+      </c>
+      <c r="O12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:Q1"/>

--- a/public/reports/production_report_g.xlsx
+++ b/public/reports/production_report_g.xlsx
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
-  <si>
-    <t>PRODUCTION REPORT</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
+  <si>
+    <t>PRODUCTION STATUS REPORT</t>
   </si>
   <si>
     <t>Generated on</t>
   </si>
   <si>
-    <t>17/1/2019</t>
+    <t>21/1/2019</t>
   </si>
   <si>
     <t>S.NO</t>
@@ -79,112 +79,64 @@
     <t>Dream uniforms</t>
   </si>
   <si>
-    <t>lpo/Dream uniforms/78605</t>
-  </si>
-  <si>
-    <t>4557-4606</t>
+    <t>lpo/Dream uniforms/73315</t>
+  </si>
+  <si>
+    <t>5857-5956</t>
   </si>
   <si>
     <t>Shirt</t>
   </si>
   <si>
-    <t>Dream_uniform_2</t>
+    <t>ARKAN SECURITY UNFIORM</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cut on </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stitched on </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> finalized on </t>
+  </si>
+  <si>
+    <t>riaz packing on 21/1/2019--20:14</t>
+  </si>
+  <si>
+    <t>5957-6006</t>
+  </si>
+  <si>
+    <t>Trouser</t>
   </si>
   <si>
     <t>50</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cut on </t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>ali stitched on 9/1/2019--19:5</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>ahmed finalized on 9/1/2019--19:13</t>
-  </si>
-  <si>
-    <t>ali packing on 9/1/2019--19:22</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>4607-4656</t>
-  </si>
-  <si>
-    <t>Jeans</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> finalized on </t>
+    <t>mujtaba packing on 21/1/2019--20:12</t>
+  </si>
+  <si>
+    <t>6007-6106</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>ali packing on 21/1/2019--20:24</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>6107-6156</t>
   </si>
   <si>
     <t xml:space="preserve"> packing on </t>
-  </si>
-  <si>
-    <t>lpo/Dream uniforms/DU/PO/001Test</t>
-  </si>
-  <si>
-    <t>4657-4756</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>abcd cut on 10/1/2019--19:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> stitched on </t>
-  </si>
-  <si>
-    <t>Affan uniforms co.</t>
-  </si>
-  <si>
-    <t>lpo/Affan uniforms co./500</t>
-  </si>
-  <si>
-    <t>4757-4806</t>
-  </si>
-  <si>
-    <t>Geo Anchor</t>
-  </si>
-  <si>
-    <t>ali packing on 14/1/2019--14:45</t>
-  </si>
-  <si>
-    <t>4807-4856</t>
-  </si>
-  <si>
-    <t>Geo tv anchor female</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>ahmed packing on 14/1/2019--14:46</t>
-  </si>
-  <si>
-    <t>33</t>
   </si>
   <si>
     <t>Total Cut</t>
@@ -544,11 +496,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
@@ -681,25 +631,25 @@
         <v>27</v>
       </c>
       <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
         <v>28</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" t="s">
         <v>30</v>
       </c>
-      <c r="M6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" t="s">
-        <v>32</v>
-      </c>
       <c r="P6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -713,43 +663,43 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
         <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" t="s">
         <v>29</v>
       </c>
-      <c r="L7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" t="s">
-        <v>39</v>
-      </c>
       <c r="N7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="P7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -760,10 +710,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
@@ -772,34 +722,34 @@
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" t="s">
         <v>38</v>
-      </c>
-      <c r="K8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" t="s">
-        <v>40</v>
-      </c>
-      <c r="P8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -807,131 +757,81 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
         <v>27</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="K9" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="L9" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M9" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="P9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N10" t="s">
-        <v>54</v>
-      </c>
-      <c r="O10" t="s">
-        <v>55</v>
-      </c>
-      <c r="P10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12">
-        <v>60</v>
-      </c>
-      <c r="I12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12">
-        <v>22</v>
-      </c>
-      <c r="K12" t="s">
-        <v>59</v>
-      </c>
-      <c r="L12">
-        <v>14</v>
-      </c>
-      <c r="M12" t="s">
-        <v>60</v>
-      </c>
-      <c r="N12">
-        <v>81</v>
-      </c>
-      <c r="O12" t="s">
-        <v>61</v>
-      </c>
-      <c r="P12">
-        <v>81</v>
+    <row r="11" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11">
+        <v>174</v>
+      </c>
+      <c r="O11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
